--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C449A576-509D-4C67-8A9F-80B9D0603B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FC580-7E95-40AF-B8BF-8296E4E38B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FC580-7E95-40AF-B8BF-8296E4E38B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FB31A-2702-4AE2-B4CF-575047461325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>45933</v>
+        <v>45969</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
@@ -2360,26 +2360,26 @@
         <v>70</v>
       </c>
       <c r="G7" s="20">
-        <v>517967448</v>
+        <v>518080735</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="21">
-        <f>1324098-53803.62</f>
-        <v>1270294.3799999999</v>
+        <f>1320282-52825.14</f>
+        <v>1267456.8600000001</v>
       </c>
       <c r="K7" s="21">
         <f>M7*12</f>
-        <v>136102.96928571427</v>
+        <v>135798.94928571431</v>
       </c>
       <c r="L7" s="27">
         <f>I7-K7</f>
-        <v>1134191.4107142857</v>
+        <v>1131657.9107142859</v>
       </c>
       <c r="M7" s="33">
         <f>I7/112</f>
-        <v>11341.914107142857</v>
+        <v>11316.579107142858</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -3112,19 +3112,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1270294.3799999999</v>
+        <v>1267456.8600000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>136102.96928571427</v>
+        <v>135798.94928571431</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1134191.4107142857</v>
+        <v>1131657.9107142859</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>11341.914107142857</v>
+        <v>11316.579107142858</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FB31A-2702-4AE2-B4CF-575047461325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5555E8-3B3E-4D2F-B7AB-3CF047ECC02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2393,9 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>45971</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2401,22 +2403,27 @@
       <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>518082534</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K8" s="21">
         <f>M8*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L8" s="27">
         <f>I8-K8</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ref="M8:M26" si="0">I8/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3112,19 +3119,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1267456.8600000001</v>
+        <v>2564333.8200000003</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>135798.94928571431</v>
+        <v>274750.05214285717</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1131657.9107142859</v>
+        <v>2289583.7678571427</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>11316.579107142858</v>
+        <v>22895.837678571428</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5555E8-3B3E-4D2F-B7AB-3CF047ECC02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47CA2BF-AABD-4E8D-AD32-D93A66A01E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2435,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19">
+        <v>45972</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
@@ -2443,22 +2445,27 @@
       <c r="F9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>518085413</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K9" s="21">
         <f t="shared" ref="K9:K26" si="2">M9*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" ref="L9:L26" si="3">I9-K9</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2470,7 +2477,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19">
+        <v>45972</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>68</v>
       </c>
@@ -2478,22 +2487,27 @@
       <c r="F10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>518085696</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3119,19 +3133,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>2564333.8200000003</v>
+        <v>5158087.74</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>274750.05214285717</v>
+        <v>552652.25785714295</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>2289583.7678571427</v>
+        <v>4605435.4821428573</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>22895.837678571428</v>
+        <v>46054.354821428569</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47CA2BF-AABD-4E8D-AD32-D93A66A01E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737D032C-63BA-4721-8B3F-6C1E0BE92946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>NOVEMBER 2025</t>
+  </si>
+  <si>
+    <t>11/17/2025</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2217,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2522,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
@@ -2527,22 +2532,27 @@
       <c r="F11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>518101723</v>
+      </c>
       <c r="H11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K11" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -2554,7 +2564,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
@@ -2562,22 +2574,27 @@
       <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>518101432</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3133,19 +3150,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>5158087.74</v>
+        <v>7751841.6600000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>552652.25785714295</v>
+        <v>830554.46357142879</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>4605435.4821428573</v>
+        <v>6921287.1964285718</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>46054.354821428569</v>
+        <v>69212.871964285703</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737D032C-63BA-4721-8B3F-6C1E0BE92946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD21E884-2408-49C9-A0D3-BE53E6F526B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>11/17/2025</t>
+  </si>
+  <si>
+    <t>11/18/2025</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2220,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,7 +2609,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
@@ -2614,22 +2619,27 @@
       <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>518105819</v>
+      </c>
       <c r="H13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L13" s="27">
         <f>I13-K13</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M13" s="33">
         <f>I13/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3150,19 +3160,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>7751841.6600000001</v>
+        <v>9048718.620000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>830554.46357142879</v>
+        <v>969505.56642857171</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>6921287.1964285718</v>
+        <v>8079213.0535714291</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>69212.871964285703</v>
+        <v>80792.13053571427</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD21E884-2408-49C9-A0D3-BE53E6F526B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5134B7FF-3695-4EDC-847E-9EA11BDD737E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>11/18/2025</t>
+  </si>
+  <si>
+    <t>11/20/2025</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2223,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,7 +2419,7 @@
         <v>74</v>
       </c>
       <c r="I8" s="21">
-        <f>1353132-56255.04</f>
+        <f t="shared" ref="I8:I13" si="0">1353132-56255.04</f>
         <v>1296876.96</v>
       </c>
       <c r="K8" s="21">
@@ -2428,17 +2431,17 @@
         <v>1157925.857142857</v>
       </c>
       <c r="M8" s="33">
-        <f t="shared" ref="M8:M26" si="0">I8/112</f>
+        <f t="shared" ref="M8:M26" si="1">I8/112</f>
         <v>11579.258571428571</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ref="A9:B27" si="1">A8+1</f>
+        <f t="shared" ref="A9:B27" si="2">A8+1</f>
         <v>3</v>
       </c>
       <c r="B9" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C9" s="19">
@@ -2458,29 +2461,29 @@
         <v>74</v>
       </c>
       <c r="I9" s="21">
-        <f>1353132-56255.04</f>
+        <f t="shared" si="0"/>
         <v>1296876.96</v>
       </c>
       <c r="K9" s="21">
-        <f t="shared" ref="K9:K26" si="2">M9*12</f>
+        <f t="shared" ref="K9:K26" si="3">M9*12</f>
         <v>138951.10285714286</v>
       </c>
       <c r="L9" s="27">
-        <f t="shared" ref="L9:L26" si="3">I9-K9</f>
+        <f t="shared" ref="L9:L26" si="4">I9-K9</f>
         <v>1157925.857142857</v>
       </c>
       <c r="M9" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11579.258571428571</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C10" s="19">
@@ -2500,29 +2503,29 @@
         <v>74</v>
       </c>
       <c r="I10" s="21">
-        <f>1353132-56255.04</f>
+        <f t="shared" si="0"/>
         <v>1296876.96</v>
       </c>
       <c r="K10" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138951.10285714286</v>
       </c>
       <c r="L10" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1157925.857142857</v>
       </c>
       <c r="M10" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11579.258571428571</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B11" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2542,29 +2545,29 @@
         <v>74</v>
       </c>
       <c r="I11" s="21">
-        <f>1353132-56255.04</f>
+        <f t="shared" si="0"/>
         <v>1296876.96</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138951.10285714286</v>
       </c>
       <c r="L11" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1157925.857142857</v>
       </c>
       <c r="M11" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11579.258571428571</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2584,29 +2587,29 @@
         <v>74</v>
       </c>
       <c r="I12" s="21">
-        <f>1353132-56255.04</f>
+        <f t="shared" si="0"/>
         <v>1296876.96</v>
       </c>
       <c r="K12" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138951.10285714286</v>
       </c>
       <c r="L12" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1157925.857142857</v>
       </c>
       <c r="M12" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11579.258571428571</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B13" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -2626,11 +2629,11 @@
         <v>74</v>
       </c>
       <c r="I13" s="21">
-        <f>1353132-56255.04</f>
+        <f t="shared" si="0"/>
         <v>1296876.96</v>
       </c>
       <c r="K13" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138951.10285714286</v>
       </c>
       <c r="L13" s="27">
@@ -2644,14 +2647,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2659,31 +2664,36 @@
       <c r="F14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>518113761</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="38">
+        <f>1265884-48126.75</f>
+        <v>1217757.25</v>
+      </c>
       <c r="K14" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>130473.99107142857</v>
       </c>
       <c r="L14" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1087283.2589285714</v>
       </c>
       <c r="M14" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10872.832589285714</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C15" s="19"/>
@@ -2700,7 +2710,7 @@
       </c>
       <c r="I15" s="21"/>
       <c r="K15" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15" s="27">
@@ -2714,11 +2724,11 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C16" s="19"/>
@@ -2735,25 +2745,25 @@
       </c>
       <c r="I16" s="21"/>
       <c r="K16" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M16" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C17" s="19"/>
@@ -2770,25 +2780,25 @@
       </c>
       <c r="I17" s="21"/>
       <c r="K17" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M17" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C18" s="19"/>
@@ -2805,25 +2815,25 @@
       </c>
       <c r="I18" s="21"/>
       <c r="K18" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M18" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C19" s="19"/>
@@ -2840,25 +2850,25 @@
       </c>
       <c r="I19" s="21"/>
       <c r="K19" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M19" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C20" s="19"/>
@@ -2875,25 +2885,25 @@
       </c>
       <c r="I20" s="21"/>
       <c r="K20" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B21" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C21" s="19"/>
@@ -2910,25 +2920,25 @@
       </c>
       <c r="I21" s="21"/>
       <c r="K21" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L21" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M21" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B22" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C22" s="19"/>
@@ -2945,25 +2955,25 @@
       </c>
       <c r="I22" s="21"/>
       <c r="K22" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L22" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C23" s="19"/>
@@ -2980,25 +2990,25 @@
       </c>
       <c r="I23" s="21"/>
       <c r="K23" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L23" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B24" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C24" s="19"/>
@@ -3015,25 +3025,25 @@
       </c>
       <c r="I24" s="21"/>
       <c r="K24" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B25" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C25" s="19"/>
@@ -3050,25 +3060,25 @@
       </c>
       <c r="I25" s="21"/>
       <c r="K25" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L25" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B26" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C26" s="19"/>
@@ -3085,21 +3095,21 @@
       </c>
       <c r="I26" s="21"/>
       <c r="K26" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L26" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B27" s="23">
@@ -3120,15 +3130,15 @@
       </c>
       <c r="I27" s="21"/>
       <c r="K27" s="21">
-        <f t="shared" ref="K27" si="4">M27*12</f>
+        <f t="shared" ref="K27" si="5">M27*12</f>
         <v>0</v>
       </c>
       <c r="L27" s="27">
-        <f t="shared" ref="L27" si="5">I27-K27</f>
+        <f t="shared" ref="L27" si="6">I27-K27</f>
         <v>0</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" ref="M27" si="6">I27/112</f>
+        <f t="shared" ref="M27" si="7">I27/112</f>
         <v>0</v>
       </c>
     </row>
@@ -3160,19 +3170,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>9048718.620000001</v>
+        <v>10266475.870000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>969505.56642857171</v>
+        <v>1099979.5575000003</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>8079213.0535714291</v>
+        <v>9166496.3125</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>80792.13053571427</v>
+        <v>91664.96312499998</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3297,7 +3307,7 @@
       <c r="H40" s="20"/>
       <c r="I40" s="21"/>
       <c r="K40" s="21">
-        <f t="shared" ref="K40:K59" si="7">M40*12</f>
+        <f t="shared" ref="K40:K59" si="8">M40*12</f>
         <v>0</v>
       </c>
       <c r="L40" s="27">
@@ -3305,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="33">
-        <f t="shared" ref="M40:M59" si="8">I40/112</f>
+        <f t="shared" ref="M40:M59" si="9">I40/112</f>
         <v>0</v>
       </c>
     </row>
@@ -3321,15 +3331,15 @@
       <c r="H41" s="20"/>
       <c r="I41" s="21"/>
       <c r="K41" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L41" s="27">
-        <f t="shared" ref="L41:L59" si="9">I41-K41</f>
+        <f t="shared" ref="L41:L59" si="10">I41-K41</f>
         <v>0</v>
       </c>
       <c r="M41" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3345,15 +3355,15 @@
       <c r="H42" s="20"/>
       <c r="I42" s="21"/>
       <c r="K42" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L42" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3369,15 +3379,15 @@
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
       <c r="K43" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L43" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3393,15 +3403,15 @@
       <c r="H44" s="20"/>
       <c r="I44" s="21"/>
       <c r="K44" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L44" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3417,15 +3427,15 @@
       <c r="H45" s="20"/>
       <c r="I45" s="21"/>
       <c r="K45" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L45" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3441,15 +3451,15 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
       <c r="K46" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L46" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3465,15 +3475,15 @@
       <c r="H47" s="20"/>
       <c r="I47" s="21"/>
       <c r="K47" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L47" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3489,15 +3499,15 @@
       <c r="H48" s="20"/>
       <c r="I48" s="21"/>
       <c r="K48" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L48" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3513,15 +3523,15 @@
       <c r="H49" s="20"/>
       <c r="I49" s="21"/>
       <c r="K49" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L49" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3537,15 +3547,15 @@
       <c r="H50" s="20"/>
       <c r="I50" s="21"/>
       <c r="K50" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L50" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3561,15 +3571,15 @@
       <c r="H51" s="20"/>
       <c r="I51" s="21"/>
       <c r="K51" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L51" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3585,15 +3595,15 @@
       <c r="H52" s="20"/>
       <c r="I52" s="21"/>
       <c r="K52" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L52" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3609,15 +3619,15 @@
       <c r="H53" s="20"/>
       <c r="I53" s="21"/>
       <c r="K53" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L53" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3633,15 +3643,15 @@
       <c r="H54" s="20"/>
       <c r="I54" s="21"/>
       <c r="K54" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L54" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3657,15 +3667,15 @@
       <c r="H55" s="20"/>
       <c r="I55" s="21"/>
       <c r="K55" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L55" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3681,15 +3691,15 @@
       <c r="H56" s="20"/>
       <c r="I56" s="21"/>
       <c r="K56" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L56" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3705,15 +3715,15 @@
       <c r="H57" s="20"/>
       <c r="I57" s="21"/>
       <c r="K57" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L57" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3729,15 +3739,15 @@
       <c r="H58" s="20"/>
       <c r="I58" s="21"/>
       <c r="K58" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L58" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3753,15 +3763,15 @@
       <c r="H59" s="20"/>
       <c r="I59" s="21"/>
       <c r="K59" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L59" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="33">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="33">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5134B7FF-3695-4EDC-847E-9EA11BDD737E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB021C4-F422-4D96-9742-255D14F9D640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>11/20/2025</t>
+  </si>
+  <si>
+    <t>11/21/2025</t>
   </si>
 </sst>
 </file>
@@ -2223,7 +2226,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,7 +2699,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
@@ -2704,22 +2709,27 @@
       <c r="F15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>518117791</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <f>1387582-57800.52</f>
+        <v>1329781.48</v>
+      </c>
       <c r="K15" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>142476.58714285714</v>
       </c>
       <c r="L15" s="27">
         <f>I15-K15</f>
-        <v>0</v>
+        <v>1187304.8928571427</v>
       </c>
       <c r="M15" s="33">
         <f>I15/112</f>
-        <v>0</v>
+        <v>11873.048928571428</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3170,19 +3180,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>10266475.870000001</v>
+        <v>11596257.350000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1099979.5575000003</v>
+        <v>1242456.1446428574</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>9166496.3125</v>
+        <v>10353801.205357142</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>91664.96312499998</v>
+        <v>103538.01205357141</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB021C4-F422-4D96-9742-255D14F9D640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2399A0-8F38-444B-8CE5-B0CA27E5E8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>11/21/2025</t>
+  </si>
+  <si>
+    <t>11/25/2025</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,7 +2744,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2749,22 +2754,27 @@
       <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>518130298</v>
+      </c>
       <c r="H16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <f>1345536-55062.4</f>
+        <v>1290473.6000000001</v>
+      </c>
       <c r="K16" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>138265.02857142859</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1152208.5714285716</v>
       </c>
       <c r="M16" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11522.085714285715</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3180,19 +3190,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>11596257.350000001</v>
+        <v>12886730.950000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1242456.1446428574</v>
+        <v>1380721.1732142859</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>10353801.205357142</v>
+        <v>11506009.776785713</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>103538.01205357141</v>
+        <v>115060.09776785712</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2399A0-8F38-444B-8CE5-B0CA27E5E8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A497A5-7F60-45EF-87F9-0827A494C842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="82">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>11/25/2025</t>
+  </si>
+  <si>
+    <t>11/26/2025</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2232,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2789,9 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
@@ -2794,22 +2799,27 @@
       <c r="F17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>518135093</v>
+      </c>
       <c r="H17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <f>1251528-52680.48</f>
+        <v>1198847.52</v>
+      </c>
       <c r="K17" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>128447.94857142857</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1070399.5714285714</v>
       </c>
       <c r="M17" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10703.995714285715</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3190,19 +3200,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>12886730.950000001</v>
+        <v>14085578.470000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1380721.1732142859</v>
+        <v>1509169.1217857145</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>11506009.776785713</v>
+        <v>12576409.348214284</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>115060.09776785712</v>
+        <v>125764.09348214284</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A497A5-7F60-45EF-87F9-0827A494C842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5C6B0-E1A2-469C-9663-9FFE8F3C0080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>11/26/2025</t>
+  </si>
+  <si>
+    <t>11/28/2025</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2235,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2834,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>68</v>
       </c>
@@ -2839,22 +2844,27 @@
       <c r="F18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>518144431</v>
+      </c>
       <c r="H18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <f>1231463-49683.74</f>
+        <v>1181779.26</v>
+      </c>
       <c r="K18" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>126619.20642857143</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1055160.0535714286</v>
       </c>
       <c r="M18" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10551.600535714286</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3200,19 +3210,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>14085578.470000001</v>
+        <v>15267357.73</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1509169.1217857145</v>
+        <v>1635788.3282142859</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>12576409.348214284</v>
+        <v>13631569.401785713</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>125764.09348214284</v>
+        <v>136315.69401785714</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
+++ b/GBDS NOVEMBER FILES 2025/PURCHASES - NOVEMBER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS NOVEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5C6B0-E1A2-469C-9663-9FFE8F3C0080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5B60CB-5666-472F-BB56-D5DAB55D720F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="85">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>11/28/2025</t>
+  </si>
+  <si>
+    <t>11/29/2025</t>
+  </si>
+  <si>
+    <t>11/30/2025</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2241,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2882,9 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>68</v>
       </c>
@@ -2884,22 +2892,27 @@
       <c r="F19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>518149982</v>
+      </c>
       <c r="H19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21">
+        <f>1300225-56321.18</f>
+        <v>1243903.82</v>
+      </c>
       <c r="K19" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>133275.4092857143</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1110628.4107142857</v>
       </c>
       <c r="M19" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11106.284107142857</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2911,7 +2924,9 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>68</v>
       </c>
@@ -2919,22 +2934,27 @@
       <c r="F20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>518152453</v>
+      </c>
       <c r="H20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21">
+        <f>122800-10224</f>
+        <v>112576</v>
+      </c>
       <c r="K20" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12061.714285714286</v>
       </c>
       <c r="L20" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>100514.28571428571</v>
       </c>
       <c r="M20" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1005.1428571428571</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2946,7 +2966,9 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D21" s="20" t="s">
         <v>68</v>
       </c>
@@ -2954,22 +2976,27 @@
       <c r="F21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>518153334</v>
+      </c>
       <c r="H21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K21" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L21" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M21" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2981,7 +3008,9 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D22" s="20" t="s">
         <v>68</v>
       </c>
@@ -2989,22 +3018,27 @@
       <c r="F22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="20">
+        <v>518153364</v>
+      </c>
       <c r="H22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K22" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L22" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M22" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3016,7 +3050,9 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="D23" s="20" t="s">
         <v>68</v>
       </c>
@@ -3024,22 +3060,27 @@
       <c r="F23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="20">
+        <v>518153400</v>
+      </c>
       <c r="H23" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="21">
+        <f>1595054-66248.54</f>
+        <v>1528805.46</v>
+      </c>
       <c r="K23" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>163800.58499999999</v>
       </c>
       <c r="L23" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1365004.875</v>
       </c>
       <c r="M23" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13650.04875</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3210,19 +3251,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>15267357.73</v>
+        <v>20746396.930000003</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1635788.3282142859</v>
+        <v>2222828.2425000006</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>13631569.401785713</v>
+        <v>18523568.687499996</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>136315.69401785714</v>
+        <v>185235.68687499998</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
